--- a/codigo_final_organizado/analisis/resultados_escenarios_comparativos/Comparacion_DM_Por_Modelo.xlsx
+++ b/codigo_final_organizado/analisis/resultados_escenarios_comparativos/Comparacion_DM_Por_Modelo.xlsx
@@ -482,16 +482,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.528</v>
+        <v>5.201</v>
       </c>
       <c r="C2" t="n">
-        <v>0.471</v>
+        <v>0.443</v>
       </c>
       <c r="D2" t="n">
-        <v>89.59999999999999</v>
+        <v>91.48999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>18.3163</v>
+        <v>27.9697</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.236</v>
+        <v>1.219</v>
       </c>
       <c r="C3" t="n">
-        <v>0.455</v>
+        <v>0.421</v>
       </c>
       <c r="D3" t="n">
-        <v>63.17</v>
+        <v>65.44</v>
       </c>
       <c r="E3" t="n">
-        <v>12.7614</v>
+        <v>19.8846</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -546,16 +546,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.555</v>
+        <v>6.212</v>
       </c>
       <c r="C4" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="D4" t="n">
-        <v>91.81</v>
+        <v>92.65000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>20.5874</v>
+        <v>29.5439</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -578,16 +578,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.874</v>
+        <v>0.829</v>
       </c>
       <c r="C5" t="n">
-        <v>0.396</v>
+        <v>0.401</v>
       </c>
       <c r="D5" t="n">
-        <v>54.71</v>
+        <v>51.63</v>
       </c>
       <c r="E5" t="n">
-        <v>8.840299999999999</v>
+        <v>14.0055</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -610,16 +610,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.274</v>
+        <v>3.838</v>
       </c>
       <c r="C6" t="n">
-        <v>0.695</v>
+        <v>0.706</v>
       </c>
       <c r="D6" t="n">
-        <v>78.79000000000001</v>
+        <v>81.61</v>
       </c>
       <c r="E6" t="n">
-        <v>29.1376</v>
+        <v>31.8311</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.667</v>
+        <v>0.656</v>
       </c>
       <c r="C7" t="n">
-        <v>0.42</v>
+        <v>0.425</v>
       </c>
       <c r="D7" t="n">
-        <v>36.99</v>
+        <v>35.23</v>
       </c>
       <c r="E7" t="n">
-        <v>19.9173</v>
+        <v>19.4984</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -674,16 +674,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6860000000000001</v>
+        <v>1.621</v>
       </c>
       <c r="C8" t="n">
-        <v>0.422</v>
+        <v>0.476</v>
       </c>
       <c r="D8" t="n">
-        <v>38.56</v>
+        <v>70.66</v>
       </c>
       <c r="E8" t="n">
-        <v>19.2593</v>
+        <v>22.9849</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.216</v>
+        <v>1.184</v>
       </c>
       <c r="C9" t="n">
-        <v>0.444</v>
+        <v>0.422</v>
       </c>
       <c r="D9" t="n">
-        <v>63.5</v>
+        <v>64.36</v>
       </c>
       <c r="E9" t="n">
-        <v>10.6064</v>
+        <v>18.5696</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.386</v>
+        <v>0.371</v>
       </c>
       <c r="C10" t="n">
-        <v>0.379</v>
+        <v>0.377</v>
       </c>
       <c r="D10" t="n">
-        <v>1.7</v>
+        <v>-1.56</v>
       </c>
       <c r="E10" t="n">
-        <v>1.4242</v>
+        <v>0.7361</v>
       </c>
       <c r="F10" t="n">
-        <v>0.154389077499399</v>
+        <v>0.4616500615185113</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
